--- a/stock_historical_data/1wk/COROMANDEL.NS.xlsx
+++ b/stock_historical_data/1wk/COROMANDEL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64413,7 +64413,7 @@
         <v>25</v>
       </c>
       <c r="O1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1142" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,711 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>1596.900024414062</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>1608.949951171875</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>1562.050048828125</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>1592.75</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>1586.875</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>978670</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>1599</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>1638.800048828125</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>1571.5</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>1596.090942382812</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>1815882</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>1602.099975585938</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>1622.650024414062</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1558.199951171875</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>1589.515258789062</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>1559587</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>1595.400024414062</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>1646.400024414062</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>1499.699951171875</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>1624.699951171875</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>1618.707153320312</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>3668893</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>1632.199951171875</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1694.400024414062</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>1605</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1638.949951171875</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>1638.949951171875</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>1817796</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1704</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>1585.550048828125</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1693.699951171875</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>1693.699951171875</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4731253</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1673.550048828125</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1759.75</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>1759.75</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>2484808</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1773.949951171875</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1713.349975585938</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1748.5</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>1748.5</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>2019495</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>1748.5</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>1773.75</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1706.050048828125</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>1758.25</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>1758.25</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>1593884</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>1758.25</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>1773.550048828125</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1681</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1691.150024414062</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>1691.150024414062</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>1452891</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>1728.25</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1667.050048828125</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>1694.400024414062</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>1694.400024414062</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>1318926</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>1694.400024414062</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>1743.25</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1606.900024414062</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>1659.150024414062</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>1659.150024414062</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>2535435</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>1667.900024414062</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>1657</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>2249211</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
